--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2213.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2213.xlsx
@@ -351,10 +351,10 @@
         <v>1.396396600784908</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.143602696554057</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2213.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2213.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.396396600784908</v>
+        <v>0.9665321707725525</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>2.236487150192261</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>8.13615894317627</v>
       </c>
       <c r="D1">
-        <v>1.143602696554057</v>
+        <v>1.806392073631287</v>
       </c>
       <c r="E1">
-        <v>0.7618484715260073</v>
+        <v>1.224856972694397</v>
       </c>
     </row>
   </sheetData>
